--- a/biology/Médecine/Céfalexine/Céfalexine.xlsx
+++ b/biology/Médecine/Céfalexine/Céfalexine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9falexine</t>
+          <t>Céfalexine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La céfalexine est un antibiotique antibactérien de la famille des β-lactamines du groupe des céphalosporines de première génération.
-La céfalexine a été mise au point en 1967[2],[3],[4]. Elle a été commercialisée pour la première fois en 1969 et 1970 sous les noms de Keflex et Ceporex, entre autres. Des versions génériques sont disponibles sous d'autres noms commerciaux et sont peu coûteuses. Il figure sur la liste des médicaments essentiels de l'Organisation mondiale de la santé[5],[6]. En 2020, il était le 101e médicament le plus prescrit aux États-Unis, avec plus de 7 millions d'ordonnances[7],[8]. Au Canada, il était le cinquième antibiotique le plus utilisé en 2013[9]. En Australie, il figure parmi les 15 médicaments les plus prescrits[10].
+La céfalexine a été mise au point en 1967. Elle a été commercialisée pour la première fois en 1969 et 1970 sous les noms de Keflex et Ceporex, entre autres. Des versions génériques sont disponibles sous d'autres noms commerciaux et sont peu coûteuses. Il figure sur la liste des médicaments essentiels de l'Organisation mondiale de la santé,. En 2020, il était le 101e médicament le plus prescrit aux États-Unis, avec plus de 7 millions d'ordonnances,. Au Canada, il était le cinquième antibiotique le plus utilisé en 2013. En Australie, il figure parmi les 15 médicaments les plus prescrits.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9falexine</t>
+          <t>Céfalexine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les céphalosporines (antibiotiques β-lactamines) inhibent la production de la paroi cellulaire et sont des inhibiteurs sélectifs de la synthèse de peptidoglycanes. L'étape initiale consiste en la fixation de celle-ci à des récepteurs cellulaires appelés « protéines liant la pénicilline ». Une fois qu'un antibiotique β-lactamine s'est lié à ces récepteurs, la réaction de transpeptidation est inhibée et la synthèse des peptidoglycanes est bloquée. Il en résulte une lyse bactérienne.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9falexine</t>
+          <t>Céfalexine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Sensibilité et résistance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les concentrations critiques séparent les souches sensibles des souches de sensibilité intermédiaire et ces dernières, des résistantes : S ⇐ 8 mg/l et R &gt; 32 mg/l.
 Espèces généralement sensibles :
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%A9falexine</t>
+          <t>Céfalexine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La céfalexine est utilisée dans la prise en charge de :
 angines ;
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C%C3%A9falexine</t>
+          <t>Céfalexine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,7 +639,9 @@
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme pour tout médicament, la céfalexine présente des effets indésirables, dus à son mécanisme d'action et dont la survenue est plus ou moins fréquente ou grave :
 manifestations allergiques : éruptions cutanées, fièvre, choc anaphylactique, œdème de Quincke, prurit ano-génital (avec ou sans candidose), très exceptionnellement érythème polymorphe, syndrome de Stevens-Johnson, syndrome de Lyell ;
@@ -640,7 +660,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C%C3%A9falexine</t>
+          <t>Céfalexine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -658,9 +678,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La céfalexine fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)[11].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La céfalexine fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013).
 </t>
         </is>
       </c>
